--- a/data/escapement/prelim-inseason/2024/EscEstSppHeader_area20-22_2024.xlsx
+++ b/data/escapement/prelim-inseason/2024/EscEstSppHeader_area20-22_2024.xlsx
@@ -611,13 +611,13 @@
         <v>0</v>
       </c>
       <c r="Q2" s="0">
-        <v>10521.875</v>
+        <v>8008.88888888889</v>
       </c>
       <c r="R2" s="0">
-        <v>421</v>
+        <v>320</v>
       </c>
       <c r="S2" s="0">
-        <v>701</v>
+        <v>534</v>
       </c>
       <c r="T2" s="0">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>370</v>
       </c>
       <c r="X2" s="0">
-        <v>548</v>
+        <v>411</v>
       </c>
       <c r="Y2" s="0">
         <v>0</v>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="AD2" s="0">
-        <v>548</v>
+        <v>411</v>
       </c>
       <c r="AE2" s="0">
         <v>0</v>
@@ -671,14 +671,14 @@
         <v>0</v>
       </c>
       <c r="AK2" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL2" s="0">
         <v>-1</v>
       </c>
       <c r="AM2" s="0" t="inlineStr">
         <is>
-          <t>Two full system snorkel surveys, Oct 2 and 10, and one partial survey (lower only) Oct 25. Set % pop to 75% for Chum on Oct 25 survey to expand for potential fish missed in upper SJ - based on Oct 10 survey that had ~50% of live Chum noted in the upper river.Increased the precentage in the lower reaches due to the high water event that may have displaced spawned out Chum to the lower sgements. Conditions mostly good for all surveys so set OE to 80-90%. Used PL+D expanded estimate. Type-4 as timing was good for Chum. Did not subtract any fish from tribs this year.</t>
+          <t>Two full system snorkel surveys, Oct 2 and 10, and one partial survey (lower only) Oct 25. Did not adjust % pop for Oct 25 survey as the OE expansion was already enough and it was unlikely that ~100 more chum would be further upstream. Conditions mostly good for all surveys so set OE to 90%. Used PL+D expanded estimate. Type-4 as timing was good for Chum. Did not subtract any fish from tribs this year.</t>
         </is>
       </c>
       <c r="AN2" s="0" t="b">
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="AD7" s="0">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="AE7" s="0">
         <v>0</v>
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="AN7" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="8">
@@ -1921,16 +1921,16 @@
         <v>0</v>
       </c>
       <c r="AA12" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB12" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC12" s="0">
         <v>0</v>
       </c>
       <c r="AD12" s="0">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AE12" s="0">
         <v>0</v>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL12" s="0">
         <v>-1</v>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="AN12" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="13">
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="AA17" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB17" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC17" s="0">
         <v>0</v>
       </c>
       <c r="AD17" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE17" s="0">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL17" s="0">
         <v>-1</v>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="AN17" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="18">
@@ -3201,16 +3201,16 @@
         <v>0</v>
       </c>
       <c r="AA22" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB22" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC22" s="0">
         <v>0</v>
       </c>
       <c r="AD22" s="0">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AE22" s="0">
         <v>0</v>
@@ -3231,18 +3231,18 @@
         <v>0</v>
       </c>
       <c r="AK22" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL22" s="0">
         <v>-1</v>
       </c>
       <c r="AM22" s="0" t="inlineStr">
         <is>
-          <t>One snorkel survey on Oct 4. Water was very low and clear so gave it a high OE of 95%. Type-5 resolution as only one swim; timing was slightly early for Chum. Used PL+D for the expansion. Separate system from the SJ mainstem.</t>
+          <t>One snorkel survey on Oct 4. Water was very low and clear so gave it a high OE of 95%. Type-5 resolution as only one swim; timing was slightly early for Chum. Used PL+D for the expansion. Separate system from the SJ mainstem. Type-6 due to 1 survey that was early-ish.</t>
         </is>
       </c>
       <c r="AN22" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="23">
